--- a/src/test/resources/excelTemplates/订单模板.xlsx
+++ b/src/test/resources/excelTemplates/订单模板.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wmx\project\IDEA_project\h2Smil\src\test\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D818C-A24B-421D-B429-D01AED68C475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C9E98-4D66-4E05-8133-F704BADD78CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>订单信息汇总表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,15 +48,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华为 P30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vivo X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米10</t>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,29 +118,29 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,170 +425,137 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3800</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43821</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2890.86</v>
-      </c>
-      <c r="E4" s="7">
-        <v>43965</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2999.99</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43630</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -609,4 +565,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E995EE0-5CA8-4044-B570-33A9F48F634A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/excelTemplates/订单模板.xlsx
+++ b/src/test/resources/excelTemplates/订单模板.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wmx\project\IDEA_project\h2Smil\src\test\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C9E98-4D66-4E05-8133-F704BADD78CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38CC09-83DE-4F0E-821B-8F1D78787178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -565,18 +564,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E995EE0-5CA8-4044-B570-33A9F48F634A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>